--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCPwEU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <sheet name="Calculations" sheetId="9" r:id="rId7"/>
     <sheet name="EoCPwEU" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="316">
   <si>
     <t>Elasticity</t>
   </si>
@@ -1172,11 +1177,14 @@
   <si>
     <t>We aim to include the largest energy consumeing components to try and capture the range of elasticities. In the "Calculations" page, we remove the top 20% of elasticities for two reasons.</t>
   </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1214,7 +1222,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -1325,7 +1333,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1416,6 +1424,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1738,7 +1749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1748,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3785,7 +3796,7 @@
         <v>0.54336029487048221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
@@ -6805,7 +6816,7 @@
       </c>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -12021,7 +12032,7 @@
         <v>4.2328042328042331E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>88</v>
       </c>
@@ -22250,7 +22261,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>38</v>
       </c>
@@ -23451,18 +23462,18 @@
         <v>89</v>
       </c>
       <c r="K66" s="41">
-        <f t="shared" ref="K66:K97" si="9">IF(J66="",I66/H66*1000,J66)</f>
+        <f t="shared" ref="K66:K79" si="9">IF(J66="",I66/H66*1000,J66)</f>
         <v>89</v>
       </c>
       <c r="L66" s="38">
         <v>44000</v>
       </c>
       <c r="M66" s="45">
-        <f t="shared" ref="M66:M97" si="10">1/G66/L66*1000</f>
+        <f t="shared" ref="M66:M79" si="10">1/G66/L66*1000</f>
         <v>2.4975024975024975E-4</v>
       </c>
       <c r="N66" s="42">
-        <f t="shared" ref="N66:N97" si="11">IFERROR(P66/O66,"")</f>
+        <f t="shared" ref="N66:N79" si="11">IFERROR(P66/O66,"")</f>
         <v>281.29001200400131</v>
       </c>
       <c r="O66" s="43">
@@ -25664,7 +25675,7 @@
         <v>0.11281588447653429</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>178</v>
       </c>
@@ -33108,8 +33119,10 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>315</v>
+      </c>
       <c r="B1" s="50" t="s">
         <v>300</v>
       </c>
